--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lrfn3-Lrfn3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lrfn3-Lrfn3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3670173333333333</v>
+        <v>0.6959336666666666</v>
       </c>
       <c r="H2">
-        <v>1.101052</v>
+        <v>2.087801</v>
       </c>
       <c r="I2">
-        <v>0.1110238110123159</v>
+        <v>0.1968615319568874</v>
       </c>
       <c r="J2">
-        <v>0.1110238110123159</v>
+        <v>0.1968615319568874</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3670173333333333</v>
+        <v>0.6959336666666666</v>
       </c>
       <c r="N2">
-        <v>1.101052</v>
+        <v>2.087801</v>
       </c>
       <c r="O2">
-        <v>0.1110238110123159</v>
+        <v>0.1968615319568874</v>
       </c>
       <c r="P2">
-        <v>0.1110238110123159</v>
+        <v>0.1968615319568874</v>
       </c>
       <c r="Q2">
-        <v>0.1347017229671111</v>
+        <v>0.484323668400111</v>
       </c>
       <c r="R2">
-        <v>1.212315506704</v>
+        <v>4.358913015600999</v>
       </c>
       <c r="S2">
-        <v>0.01232628661169843</v>
+        <v>0.03875446276441259</v>
       </c>
       <c r="T2">
-        <v>0.01232628661169843</v>
+        <v>0.03875446276441259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3670173333333333</v>
+        <v>0.6959336666666666</v>
       </c>
       <c r="H3">
-        <v>1.101052</v>
+        <v>2.087801</v>
       </c>
       <c r="I3">
-        <v>0.1110238110123159</v>
+        <v>0.1968615319568874</v>
       </c>
       <c r="J3">
-        <v>0.1110238110123159</v>
+        <v>0.1968615319568874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,25 +617,25 @@
         <v>2.43075</v>
       </c>
       <c r="N3">
-        <v>7.292250000000001</v>
+        <v>7.292249999999999</v>
       </c>
       <c r="O3">
-        <v>0.7353089462210328</v>
+        <v>0.687595947320943</v>
       </c>
       <c r="P3">
-        <v>0.7353089462210329</v>
+        <v>0.687595947320943</v>
       </c>
       <c r="Q3">
-        <v>0.8921273830000001</v>
+        <v>1.69164076025</v>
       </c>
       <c r="R3">
-        <v>8.029146447</v>
+        <v>15.22476684225</v>
       </c>
       <c r="S3">
-        <v>0.0816368014809091</v>
+        <v>0.1353611915569481</v>
       </c>
       <c r="T3">
-        <v>0.0816368014809091</v>
+        <v>0.1353611915569481</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,76 +643,76 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3670173333333333</v>
+        <v>0.6959336666666666</v>
       </c>
       <c r="H4">
-        <v>1.101052</v>
+        <v>2.087801</v>
       </c>
       <c r="I4">
-        <v>0.1110238110123159</v>
+        <v>0.1968615319568874</v>
       </c>
       <c r="J4">
-        <v>0.1110238110123159</v>
+        <v>0.1968615319568874</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5079859999999999</v>
+        <v>0.0003706666666666667</v>
       </c>
       <c r="N4">
-        <v>1.523958</v>
+        <v>0.001112</v>
       </c>
       <c r="O4">
-        <v>0.1536672427666513</v>
+        <v>0.0001048519583696237</v>
       </c>
       <c r="P4">
-        <v>0.1536672427666513</v>
+        <v>0.0001048519583696237</v>
       </c>
       <c r="Q4">
-        <v>0.1864396670906666</v>
+        <v>0.0002579594124444444</v>
       </c>
       <c r="R4">
-        <v>1.677957003816</v>
+        <v>0.002321634712</v>
       </c>
       <c r="S4">
-        <v>0.01706072291970835</v>
+        <v>2.064131715332391E-05</v>
       </c>
       <c r="T4">
-        <v>0.01706072291970835</v>
+        <v>2.064131715332391E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -717,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.43075</v>
+        <v>0.6959336666666666</v>
       </c>
       <c r="H5">
-        <v>7.292250000000001</v>
+        <v>2.087801</v>
       </c>
       <c r="I5">
-        <v>0.7353089462210328</v>
+        <v>0.1968615319568874</v>
       </c>
       <c r="J5">
-        <v>0.7353089462210329</v>
+        <v>0.1968615319568874</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3670173333333333</v>
+        <v>0.4080886666666666</v>
       </c>
       <c r="N5">
-        <v>1.101052</v>
+        <v>1.224266</v>
       </c>
       <c r="O5">
-        <v>0.1110238110123159</v>
+        <v>0.1154376687638001</v>
       </c>
       <c r="P5">
-        <v>0.1110238110123159</v>
+        <v>0.1154376687638001</v>
       </c>
       <c r="Q5">
-        <v>0.8921273830000001</v>
+        <v>0.2840026421184443</v>
       </c>
       <c r="R5">
-        <v>8.029146447</v>
+        <v>2.556023779065999</v>
       </c>
       <c r="S5">
-        <v>0.0816368014809091</v>
+        <v>0.02272523631837342</v>
       </c>
       <c r="T5">
-        <v>0.0816368014809091</v>
+        <v>0.02272523631837342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -764,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,13 +785,13 @@
         <v>2.43075</v>
       </c>
       <c r="H6">
-        <v>7.292250000000001</v>
+        <v>7.292249999999999</v>
       </c>
       <c r="I6">
-        <v>0.7353089462210328</v>
+        <v>0.687595947320943</v>
       </c>
       <c r="J6">
-        <v>0.7353089462210329</v>
+        <v>0.687595947320943</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -797,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.43075</v>
+        <v>0.6959336666666666</v>
       </c>
       <c r="N6">
-        <v>7.292250000000001</v>
+        <v>2.087801</v>
       </c>
       <c r="O6">
-        <v>0.7353089462210328</v>
+        <v>0.1968615319568874</v>
       </c>
       <c r="P6">
-        <v>0.7353089462210329</v>
+        <v>0.1968615319568874</v>
       </c>
       <c r="Q6">
-        <v>5.908545562500001</v>
+        <v>1.69164076025</v>
       </c>
       <c r="R6">
-        <v>53.17691006250001</v>
+        <v>15.22476684225</v>
       </c>
       <c r="S6">
-        <v>0.5406792463926857</v>
+        <v>0.1353611915569481</v>
       </c>
       <c r="T6">
-        <v>0.5406792463926859</v>
+        <v>0.1353611915569481</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -826,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,13 +847,13 @@
         <v>2.43075</v>
       </c>
       <c r="H7">
-        <v>7.292250000000001</v>
+        <v>7.292249999999999</v>
       </c>
       <c r="I7">
-        <v>0.7353089462210328</v>
+        <v>0.687595947320943</v>
       </c>
       <c r="J7">
-        <v>0.7353089462210329</v>
+        <v>0.687595947320943</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -859,43 +862,43 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5079859999999999</v>
+        <v>2.43075</v>
       </c>
       <c r="N7">
-        <v>1.523958</v>
+        <v>7.292249999999999</v>
       </c>
       <c r="O7">
-        <v>0.1536672427666513</v>
+        <v>0.687595947320943</v>
       </c>
       <c r="P7">
-        <v>0.1536672427666513</v>
+        <v>0.687595947320943</v>
       </c>
       <c r="Q7">
-        <v>1.2347869695</v>
+        <v>5.908545562499999</v>
       </c>
       <c r="R7">
-        <v>11.1130827255</v>
+        <v>53.17691006249999</v>
       </c>
       <c r="S7">
-        <v>0.112992898347438</v>
+        <v>0.472788186772185</v>
       </c>
       <c r="T7">
-        <v>0.112992898347438</v>
+        <v>0.472788186772185</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -903,61 +906,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5079859999999999</v>
+        <v>2.43075</v>
       </c>
       <c r="H8">
-        <v>1.523958</v>
+        <v>7.292249999999999</v>
       </c>
       <c r="I8">
-        <v>0.1536672427666513</v>
+        <v>0.687595947320943</v>
       </c>
       <c r="J8">
-        <v>0.1536672427666513</v>
+        <v>0.687595947320943</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.3670173333333333</v>
+        <v>0.0003706666666666667</v>
       </c>
       <c r="N8">
-        <v>1.101052</v>
+        <v>0.001112</v>
       </c>
       <c r="O8">
-        <v>0.1110238110123159</v>
+        <v>0.0001048519583696237</v>
       </c>
       <c r="P8">
-        <v>0.1110238110123159</v>
+        <v>0.0001048519583696237</v>
       </c>
       <c r="Q8">
-        <v>0.1864396670906666</v>
+        <v>0.0009009979999999999</v>
       </c>
       <c r="R8">
-        <v>1.677957003816</v>
+        <v>0.008108981999999999</v>
       </c>
       <c r="S8">
-        <v>0.01706072291970835</v>
+        <v>7.209578164361751E-05</v>
       </c>
       <c r="T8">
-        <v>0.01706072291970835</v>
+        <v>7.20957816436175E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -965,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5079859999999999</v>
+        <v>2.43075</v>
       </c>
       <c r="H9">
-        <v>1.523958</v>
+        <v>7.292249999999999</v>
       </c>
       <c r="I9">
-        <v>0.1536672427666513</v>
+        <v>0.687595947320943</v>
       </c>
       <c r="J9">
-        <v>0.1536672427666513</v>
+        <v>0.687595947320943</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -983,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.43075</v>
+        <v>0.4080886666666666</v>
       </c>
       <c r="N9">
-        <v>7.292250000000001</v>
+        <v>1.224266</v>
       </c>
       <c r="O9">
-        <v>0.7353089462210328</v>
+        <v>0.1154376687638001</v>
       </c>
       <c r="P9">
-        <v>0.7353089462210329</v>
+        <v>0.1154376687638001</v>
       </c>
       <c r="Q9">
-        <v>1.2347869695</v>
+        <v>0.9919615264999997</v>
       </c>
       <c r="R9">
-        <v>11.1130827255</v>
+        <v>8.927653738499998</v>
       </c>
       <c r="S9">
-        <v>0.112992898347438</v>
+        <v>0.07937447321016637</v>
       </c>
       <c r="T9">
-        <v>0.112992898347438</v>
+        <v>0.07937447321016639</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1012,61 +1015,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.0003706666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.001112</v>
+      </c>
+      <c r="I10">
+        <v>0.0001048519583696237</v>
+      </c>
+      <c r="J10">
+        <v>0.0001048519583696237</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6959336666666666</v>
+      </c>
+      <c r="N10">
+        <v>2.087801</v>
+      </c>
+      <c r="O10">
+        <v>0.1968615319568874</v>
+      </c>
+      <c r="P10">
+        <v>0.1968615319568874</v>
+      </c>
+      <c r="Q10">
+        <v>0.0002579594124444444</v>
+      </c>
+      <c r="R10">
+        <v>0.002321634712</v>
+      </c>
+      <c r="S10">
+        <v>2.064131715332391E-05</v>
+      </c>
+      <c r="T10">
+        <v>2.064131715332391E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.0003706666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.001112</v>
+      </c>
+      <c r="I11">
+        <v>0.0001048519583696237</v>
+      </c>
+      <c r="J11">
+        <v>0.0001048519583696237</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.43075</v>
+      </c>
+      <c r="N11">
+        <v>7.292249999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.687595947320943</v>
+      </c>
+      <c r="P11">
+        <v>0.687595947320943</v>
+      </c>
+      <c r="Q11">
+        <v>0.0009009979999999999</v>
+      </c>
+      <c r="R11">
+        <v>0.008108981999999999</v>
+      </c>
+      <c r="S11">
+        <v>7.209578164361751E-05</v>
+      </c>
+      <c r="T11">
+        <v>7.20957816436175E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.0003706666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.001112</v>
+      </c>
+      <c r="I12">
+        <v>0.0001048519583696237</v>
+      </c>
+      <c r="J12">
+        <v>0.0001048519583696237</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.0003706666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.001112</v>
+      </c>
+      <c r="O12">
+        <v>0.0001048519583696237</v>
+      </c>
+      <c r="P12">
+        <v>0.0001048519583696237</v>
+      </c>
+      <c r="Q12">
+        <v>1.373937777777778E-07</v>
+      </c>
+      <c r="R12">
+        <v>1.236544E-06</v>
+      </c>
+      <c r="S12">
+        <v>1.099393317394531E-08</v>
+      </c>
+      <c r="T12">
+        <v>1.099393317394531E-08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.0003706666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.001112</v>
+      </c>
+      <c r="I13">
+        <v>0.0001048519583696237</v>
+      </c>
+      <c r="J13">
+        <v>0.0001048519583696237</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4080886666666666</v>
+      </c>
+      <c r="N13">
+        <v>1.224266</v>
+      </c>
+      <c r="O13">
+        <v>0.1154376687638001</v>
+      </c>
+      <c r="P13">
+        <v>0.1154376687638001</v>
+      </c>
+      <c r="Q13">
+        <v>0.0001512648657777778</v>
+      </c>
+      <c r="R13">
+        <v>0.001361383792</v>
+      </c>
+      <c r="S13">
+        <v>1.210386563950838E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.210386563950838E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4080886666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.224266</v>
+      </c>
+      <c r="I14">
+        <v>0.1154376687638001</v>
+      </c>
+      <c r="J14">
+        <v>0.1154376687638001</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6959336666666666</v>
+      </c>
+      <c r="N14">
+        <v>2.087801</v>
+      </c>
+      <c r="O14">
+        <v>0.1968615319568874</v>
+      </c>
+      <c r="P14">
+        <v>0.1968615319568874</v>
+      </c>
+      <c r="Q14">
+        <v>0.2840026421184443</v>
+      </c>
+      <c r="R14">
+        <v>2.556023779065999</v>
+      </c>
+      <c r="S14">
+        <v>0.02272523631837342</v>
+      </c>
+      <c r="T14">
+        <v>0.02272523631837342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4080886666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.224266</v>
+      </c>
+      <c r="I15">
+        <v>0.1154376687638001</v>
+      </c>
+      <c r="J15">
+        <v>0.1154376687638001</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.43075</v>
+      </c>
+      <c r="N15">
+        <v>7.292249999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.687595947320943</v>
+      </c>
+      <c r="P15">
+        <v>0.687595947320943</v>
+      </c>
+      <c r="Q15">
+        <v>0.9919615264999997</v>
+      </c>
+      <c r="R15">
+        <v>8.927653738499998</v>
+      </c>
+      <c r="S15">
+        <v>0.07937447321016637</v>
+      </c>
+      <c r="T15">
+        <v>0.07937447321016639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.5079859999999999</v>
-      </c>
-      <c r="H10">
-        <v>1.523958</v>
-      </c>
-      <c r="I10">
-        <v>0.1536672427666513</v>
-      </c>
-      <c r="J10">
-        <v>0.1536672427666513</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.5079859999999999</v>
-      </c>
-      <c r="N10">
-        <v>1.523958</v>
-      </c>
-      <c r="O10">
-        <v>0.1536672427666513</v>
-      </c>
-      <c r="P10">
-        <v>0.1536672427666513</v>
-      </c>
-      <c r="Q10">
-        <v>0.2580497761959999</v>
-      </c>
-      <c r="R10">
-        <v>2.322447985764</v>
-      </c>
-      <c r="S10">
-        <v>0.02361362149950493</v>
-      </c>
-      <c r="T10">
-        <v>0.02361362149950493</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4080886666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.224266</v>
+      </c>
+      <c r="I16">
+        <v>0.1154376687638001</v>
+      </c>
+      <c r="J16">
+        <v>0.1154376687638001</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.0003706666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.001112</v>
+      </c>
+      <c r="O16">
+        <v>0.0001048519583696237</v>
+      </c>
+      <c r="P16">
+        <v>0.0001048519583696237</v>
+      </c>
+      <c r="Q16">
+        <v>0.0001512648657777778</v>
+      </c>
+      <c r="R16">
+        <v>0.001361383792</v>
+      </c>
+      <c r="S16">
+        <v>1.210386563950838E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.210386563950838E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4080886666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.224266</v>
+      </c>
+      <c r="I17">
+        <v>0.1154376687638001</v>
+      </c>
+      <c r="J17">
+        <v>0.1154376687638001</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4080886666666666</v>
+      </c>
+      <c r="N17">
+        <v>1.224266</v>
+      </c>
+      <c r="O17">
+        <v>0.1154376687638001</v>
+      </c>
+      <c r="P17">
+        <v>0.1154376687638001</v>
+      </c>
+      <c r="Q17">
+        <v>0.1665363598617777</v>
+      </c>
+      <c r="R17">
+        <v>1.498827238756</v>
+      </c>
+      <c r="S17">
+        <v>0.01332585536962083</v>
+      </c>
+      <c r="T17">
+        <v>0.01332585536962084</v>
       </c>
     </row>
   </sheetData>
